--- a/data/formatted/basicdata200102.xlsx
+++ b/data/formatted/basicdata200102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083C177F-753E-4784-89FA-7E0C8C3D8936}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE3EE4-3E1A-4677-A0E4-D35B59AC543D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2420" windowWidth="11520" windowHeight="6000" xr2:uid="{D4A52F92-3258-4C09-8B32-6C043B19E1ED}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{D4A52F92-3258-4C09-8B32-6C043B19E1ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200102.xlsx
+++ b/data/formatted/basicdata200102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BE3EE4-3E1A-4677-A0E4-D35B59AC543D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BFDDDC-095B-424B-815C-FC67BDCCB0E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" xr2:uid="{D4A52F92-3258-4C09-8B32-6C043B19E1ED}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{D4A52F92-3258-4C09-8B32-6C043B19E1ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/data/formatted/basicdata200102.xlsx
+++ b/data/formatted/basicdata200102.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petri\Documents\CS-4641\machine-learning-madness\data\formatted\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67BFDDDC-095B-424B-815C-FC67BDCCB0E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68D46F7-B063-450B-A6E7-94F8C1CF3138}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{D4A52F92-3258-4C09-8B32-6C043B19E1ED}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D4A52F92-3258-4C09-8B32-6C043B19E1ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,199 +114,199 @@
     <t>PersonalFouls</t>
   </si>
   <si>
-    <t>Alabama NCAA</t>
-  </si>
-  <si>
-    <t>Alcorn State NCAA</t>
-  </si>
-  <si>
-    <t>Arizona NCAA</t>
-  </si>
-  <si>
-    <t>Boston College NCAA</t>
-  </si>
-  <si>
-    <t>Boston University NCAA</t>
-  </si>
-  <si>
-    <t>UC-Santa Barbara NCAA</t>
-  </si>
-  <si>
-    <t>University of California NCAA</t>
-  </si>
-  <si>
-    <t>Central Connecticut State NCAA</t>
-  </si>
-  <si>
-    <t>Charlotte NCAA</t>
-  </si>
-  <si>
-    <t>Cincinnati NCAA</t>
-  </si>
-  <si>
-    <t>Connecticut NCAA</t>
-  </si>
-  <si>
-    <t>Creighton NCAA</t>
-  </si>
-  <si>
-    <t>Davidson NCAA</t>
-  </si>
-  <si>
-    <t>Duke NCAA</t>
-  </si>
-  <si>
-    <t>Florida Atlantic NCAA</t>
-  </si>
-  <si>
-    <t>Florida NCAA</t>
-  </si>
-  <si>
-    <t>Georgia NCAA</t>
-  </si>
-  <si>
-    <t>Gonzaga NCAA</t>
-  </si>
-  <si>
-    <t>Hampton NCAA</t>
-  </si>
-  <si>
-    <t>Hawaii NCAA</t>
-  </si>
-  <si>
-    <t>Holy Cross NCAA</t>
-  </si>
-  <si>
-    <t>Illinois-Chicago NCAA</t>
-  </si>
-  <si>
-    <t>Illinois NCAA</t>
-  </si>
-  <si>
-    <t>Indiana NCAA</t>
-  </si>
-  <si>
-    <t>Kansas NCAA</t>
-  </si>
-  <si>
-    <t>Kent State NCAA</t>
-  </si>
-  <si>
-    <t>Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Marquette NCAA</t>
-  </si>
-  <si>
-    <t>Maryland NCAA</t>
-  </si>
-  <si>
-    <t>McNeese State NCAA</t>
-  </si>
-  <si>
-    <t>Miami (FL) NCAA</t>
-  </si>
-  <si>
-    <t>Michigan State NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi State NCAA</t>
-  </si>
-  <si>
-    <t>Mississippi NCAA</t>
-  </si>
-  <si>
-    <t>Missouri NCAA</t>
-  </si>
-  <si>
-    <t>Montana NCAA</t>
-  </si>
-  <si>
-    <t>Murray State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina State NCAA</t>
-  </si>
-  <si>
-    <t>North Carolina-Wilmington NCAA</t>
-  </si>
-  <si>
-    <t>Notre Dame NCAA</t>
-  </si>
-  <si>
-    <t>Ohio State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma State NCAA</t>
-  </si>
-  <si>
-    <t>Oklahoma NCAA</t>
-  </si>
-  <si>
-    <t>Oregon NCAA</t>
-  </si>
-  <si>
-    <t>Pennsylvania NCAA</t>
-  </si>
-  <si>
-    <t>Pepperdine NCAA</t>
-  </si>
-  <si>
-    <t>Pittsburgh NCAA</t>
-  </si>
-  <si>
-    <t>San Diego State NCAA</t>
-  </si>
-  <si>
-    <t>Siena NCAA</t>
-  </si>
-  <si>
-    <t>Southern California NCAA</t>
-  </si>
-  <si>
-    <t>Southern Illinois NCAA</t>
-  </si>
-  <si>
-    <t>St. John's (NY) NCAA</t>
-  </si>
-  <si>
-    <t>Stanford NCAA</t>
-  </si>
-  <si>
-    <t>Texas Tech NCAA</t>
-  </si>
-  <si>
-    <t>Texas NCAA</t>
-  </si>
-  <si>
-    <t>Tulsa NCAA</t>
-  </si>
-  <si>
-    <t>UCLA NCAA</t>
-  </si>
-  <si>
-    <t>Utah NCAA</t>
-  </si>
-  <si>
-    <t>Valparaiso NCAA</t>
-  </si>
-  <si>
-    <t>Wake Forest NCAA</t>
-  </si>
-  <si>
-    <t>Western Kentucky NCAA</t>
-  </si>
-  <si>
-    <t>Winthrop NCAA</t>
-  </si>
-  <si>
-    <t>Wisconsin NCAA</t>
-  </si>
-  <si>
-    <t>Wyoming NCAA</t>
-  </si>
-  <si>
-    <t>Xavier NCAA</t>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alcorn State</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Boston College</t>
+  </si>
+  <si>
+    <t>Boston University</t>
+  </si>
+  <si>
+    <t>UC-Santa Barbara</t>
+  </si>
+  <si>
+    <t>University of California</t>
+  </si>
+  <si>
+    <t>Central Connecticut State</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Cincinnati</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Creighton</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Duke</t>
+  </si>
+  <si>
+    <t>Florida Atlantic</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Gonzaga</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Holy Cross</t>
+  </si>
+  <si>
+    <t>Illinois-Chicago</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kent State</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Marquette</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>McNeese State</t>
+  </si>
+  <si>
+    <t>Miami (FL)</t>
+  </si>
+  <si>
+    <t>Michigan State</t>
+  </si>
+  <si>
+    <t>Mississippi State</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Murray State</t>
+  </si>
+  <si>
+    <t>North Carolina State</t>
+  </si>
+  <si>
+    <t>North Carolina-Wilmington</t>
+  </si>
+  <si>
+    <t>Notre Dame</t>
+  </si>
+  <si>
+    <t>Ohio State</t>
+  </si>
+  <si>
+    <t>Oklahoma State</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Pepperdine</t>
+  </si>
+  <si>
+    <t>Pittsburgh</t>
+  </si>
+  <si>
+    <t>San Diego State</t>
+  </si>
+  <si>
+    <t>Siena</t>
+  </si>
+  <si>
+    <t>Southern California</t>
+  </si>
+  <si>
+    <t>Southern Illinois</t>
+  </si>
+  <si>
+    <t>St. John's (NY)</t>
+  </si>
+  <si>
+    <t>Stanford</t>
+  </si>
+  <si>
+    <t>Texas Tech</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Tulsa</t>
+  </si>
+  <si>
+    <t>UCLA</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Wake Forest</t>
+  </si>
+  <si>
+    <t>Western Kentucky</t>
+  </si>
+  <si>
+    <t>Winthrop</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Xavier</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AA66"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
